--- a/docs/all/idx5_viviendas_loadings_y_tops.xlsx
+++ b/docs/all/idx5_viviendas_loadings_y_tops.xlsx
@@ -399,10 +399,10 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.2911383316195091</v>
+        <v>0.2911383316195094</v>
       </c>
       <c r="D2">
-        <v>0.1231025615265196</v>
+        <v>0.1231025615265198</v>
       </c>
       <c r="E2">
         <v>12.3</v>
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.5527327280676594</v>
+        <v>0.5527327280676585</v>
       </c>
       <c r="D3">
-        <v>0.2337130060688667</v>
+        <v>0.2337130060688665</v>
       </c>
       <c r="E3">
         <v>23.4</v>
@@ -444,7 +444,7 @@
         <v>0.3073493289592407</v>
       </c>
       <c r="D4">
-        <v>0.1299570876424027</v>
+        <v>0.1299570876424028</v>
       </c>
       <c r="E4">
         <v>13</v>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.5279486835876082</v>
+        <v>0.5279486835876077</v>
       </c>
       <c r="D5">
         <v>0.2232335225068435</v>
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.3169836877886587</v>
+        <v>0.3169836877886586</v>
       </c>
       <c r="D6">
-        <v>0.1340308014813519</v>
+        <v>0.134030801481352</v>
       </c>
       <c r="E6">
         <v>13.4</v>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.3688535242437168</v>
+        <v>0.3688535242437163</v>
       </c>
       <c r="D7">
-        <v>0.1559630207740156</v>
+        <v>0.1559630207740155</v>
       </c>
       <c r="E7">
         <v>15.6</v>
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.6171870822010577</v>
+        <v>0.6171870822010579</v>
       </c>
       <c r="D8">
-        <v>0.3008193635084001</v>
+        <v>0.3008193635084002</v>
       </c>
       <c r="E8">
         <v>30.1</v>
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="C9">
-        <v>-0.2047026803622322</v>
+        <v>-0.2047026803622318</v>
       </c>
       <c r="D9">
-        <v>0.09977287566587474</v>
+        <v>0.09977287566587456</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -567,10 +567,10 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.647345754304844</v>
+        <v>0.6473457543048433</v>
       </c>
       <c r="D10">
-        <v>0.3155188165723968</v>
+        <v>0.3155188165723965</v>
       </c>
       <c r="E10">
         <v>31.6</v>
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>-0.3638974134665838</v>
+        <v>-0.3638974134665841</v>
       </c>
       <c r="D11">
-        <v>0.1773650023765569</v>
+        <v>0.1773650023765571</v>
       </c>
       <c r="E11">
         <v>17.7</v>
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>-0.1394115209845926</v>
+        <v>-0.1394115209845929</v>
       </c>
       <c r="D12">
-        <v>0.06794971284681113</v>
+        <v>0.0679497128468113</v>
       </c>
       <c r="E12">
         <v>6.8</v>
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>-0.07914223202088441</v>
+        <v>-0.07914223202088427</v>
       </c>
       <c r="D13">
-        <v>0.03857422902996035</v>
+        <v>0.03857422902996029</v>
       </c>
       <c r="E13">
         <v>3.9</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>-0.319978329021227</v>
+        <v>-0.3199783290212269</v>
       </c>
       <c r="D14">
         <v>0.1390087286276186</v>
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C15">
-        <v>-0.3334871310540679</v>
+        <v>-0.3334871310540671</v>
       </c>
       <c r="D15">
-        <v>0.1448773804254184</v>
+        <v>0.1448773804254181</v>
       </c>
       <c r="E15">
         <v>14.5</v>
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.2191070565433383</v>
+        <v>0.2191070565433384</v>
       </c>
       <c r="D16">
-        <v>0.09518705049993764</v>
+        <v>0.09518705049993771</v>
       </c>
       <c r="E16">
         <v>9.5</v>
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="C17">
-        <v>-0.3157392572812467</v>
+        <v>-0.3157392572812474</v>
       </c>
       <c r="D17">
-        <v>0.1371671414959575</v>
+        <v>0.1371671414959578</v>
       </c>
       <c r="E17">
         <v>13.7</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.6534907135013338</v>
+        <v>0.653490713501334</v>
       </c>
       <c r="D18">
-        <v>0.2838970799417778</v>
+        <v>0.283897079941778</v>
       </c>
       <c r="E18">
         <v>28.4</v>
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.4600553324655952</v>
+        <v>0.4600553324655945</v>
       </c>
       <c r="D19">
-        <v>0.1998626190092901</v>
+        <v>0.1998626190092899</v>
       </c>
       <c r="E19">
         <v>20</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.1024234271586747</v>
+        <v>0.1024234271586742</v>
       </c>
       <c r="D20">
-        <v>0.06375959984559297</v>
+        <v>0.06375959984559273</v>
       </c>
       <c r="E20">
         <v>6.4</v>
@@ -798,10 +798,10 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.04214728289487822</v>
+        <v>0.04214728289487909</v>
       </c>
       <c r="D21">
-        <v>0.026237101867264</v>
+        <v>0.02623710186726455</v>
       </c>
       <c r="E21">
         <v>2.6</v>
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="C22">
-        <v>-0.009675745111864425</v>
+        <v>-0.009675745111864021</v>
       </c>
       <c r="D22">
-        <v>0.006023247353212378</v>
+        <v>0.006023247353212129</v>
       </c>
       <c r="E22">
         <v>0.6</v>
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.05430628088229712</v>
+        <v>0.05430628088229653</v>
       </c>
       <c r="D23">
-        <v>0.03380619877904938</v>
+        <v>0.03380619877904902</v>
       </c>
       <c r="E23">
         <v>3.4</v>
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24">
-        <v>0.6368687094052965</v>
+        <v>0.6368687094052957</v>
       </c>
       <c r="D24">
-        <v>0.396457091822882</v>
+        <v>0.3964570918228816</v>
       </c>
       <c r="E24">
         <v>39.6</v>
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="C25">
-        <v>-0.7609786481284125</v>
+        <v>-0.7609786481284131</v>
       </c>
       <c r="D25">
-        <v>0.4737167603319994</v>
+        <v>0.4737167603319999</v>
       </c>
       <c r="E25">
         <v>47.4</v>
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C26">
-        <v>0.627451147066001</v>
+        <v>0.6274511470660009</v>
       </c>
       <c r="D26">
-        <v>0.2900675869751335</v>
+        <v>0.2900675869751334</v>
       </c>
       <c r="E26">
         <v>29</v>
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="C27">
-        <v>-0.3962648860965268</v>
+        <v>-0.396264886096527</v>
       </c>
       <c r="D27">
-        <v>0.1831913127427988</v>
+        <v>0.1831913127427989</v>
       </c>
       <c r="E27">
         <v>18.3</v>
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="C28">
-        <v>-0.5824792337228007</v>
+        <v>-0.582479233722801</v>
       </c>
       <c r="D28">
-        <v>0.2692772920715134</v>
+        <v>0.2692772920715133</v>
       </c>
       <c r="E28">
         <v>26.9</v>
@@ -969,7 +969,7 @@
         <v>0.1252001590401588</v>
       </c>
       <c r="D29">
-        <v>0.05787941928467256</v>
+        <v>0.05787941928467254</v>
       </c>
       <c r="E29">
         <v>5.8</v>
@@ -987,10 +987,10 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.1921055873696686</v>
+        <v>0.1921055873696697</v>
       </c>
       <c r="D30">
-        <v>0.08880947055930544</v>
+        <v>0.08880947055930592</v>
       </c>
       <c r="E30">
         <v>8.9</v>
@@ -1008,10 +1008,10 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.2396194980627376</v>
+        <v>0.2396194980627367</v>
       </c>
       <c r="D31">
-        <v>0.1107749183665764</v>
+        <v>0.1107749183665759</v>
       </c>
       <c r="E31">
         <v>11.1</v>
@@ -1032,7 +1032,7 @@
         <v>-0.1665741456450177</v>
       </c>
       <c r="D32">
-        <v>0.08387158633248971</v>
+        <v>0.08387158633248973</v>
       </c>
       <c r="E32">
         <v>8.4</v>
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="C33">
-        <v>-0.6185203505045037</v>
+        <v>-0.6185203505045034</v>
       </c>
       <c r="D33">
-        <v>0.3114305811076625</v>
+        <v>0.3114305811076624</v>
       </c>
       <c r="E33">
         <v>31.1</v>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="C34">
-        <v>0.3147956231953366</v>
+        <v>0.3147956231953365</v>
       </c>
       <c r="D34">
-        <v>0.1585024385728091</v>
+        <v>0.158502438572809</v>
       </c>
       <c r="E34">
         <v>15.9</v>
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>0.685954320210158</v>
+        <v>0.6859543202101578</v>
       </c>
       <c r="D35">
         <v>0.3453841937166877</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="C36">
-        <v>-0.1026126071297736</v>
+        <v>-0.102612607129773</v>
       </c>
       <c r="D36">
-        <v>0.05166637418046436</v>
+        <v>0.0516663741804641</v>
       </c>
       <c r="E36">
         <v>5.2</v>
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="C37">
-        <v>-0.09760465703299473</v>
+        <v>-0.09760465703299506</v>
       </c>
       <c r="D37">
-        <v>0.04914482608988677</v>
+        <v>0.04914482608988695</v>
       </c>
       <c r="E37">
         <v>4.9</v>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.3715458715940223</v>
+        <v>0.3715458715940225</v>
       </c>
     </row>
     <row r="3">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.2219417687494838</v>
+        <v>0.2219417687494836</v>
       </c>
     </row>
     <row r="4">
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.08092914348127571</v>
+        <v>0.08092914348127572</v>
       </c>
     </row>
     <row r="7">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.034094026540804</v>
+        <v>0.03409402654080394</v>
       </c>
     </row>
   </sheetData>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.5527327280676594</v>
+        <v>0.5527327280676585</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.5279486835876082</v>
+        <v>0.5279486835876077</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3688535242437168</v>
+        <v>0.3688535242437163</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3169836877886587</v>
+        <v>0.3169836877886586</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.2911383316195091</v>
+        <v>0.2911383316195094</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.647345754304844</v>
+        <v>0.6473457543048433</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.6171870822010577</v>
+        <v>0.6171870822010579</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.3638974134665838</v>
+        <v>-0.3638974134665841</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.2047026803622322</v>
+        <v>-0.2047026803622318</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>-0.1394115209845926</v>
+        <v>-0.1394115209845929</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.07914223202088441</v>
+        <v>-0.07914223202088427</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
